--- a/assets/template/mau.xlsx
+++ b/assets/template/mau.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tran\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\qlhs\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <r>
       <t xml:space="preserve">Nhà máy dược phẩm / </t>
@@ -306,6 +306,26 @@
         <family val="2"/>
       </rPr>
       <t>Reviewer date</t>
+    </r>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trạng thái
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Status</t>
     </r>
   </si>
 </sst>
@@ -313,7 +333,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +419,20 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -438,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -473,6 +507,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -495,6 +532,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -850,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,61 +908,61 @@
     <col min="10" max="10" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+    <row r="1" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
     </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="58.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -953,8 +993,14 @@
       <c r="J6" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="K6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -979,8 +1025,10 @@
         <v>5</v>
       </c>
       <c r="J7" s="8"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -1007,34 +1055,36 @@
       <c r="J8" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
     </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B10:C10"/>

--- a/assets/template/mau.xlsx
+++ b/assets/template/mau.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <r>
       <t xml:space="preserve">Nhà máy dược phẩm / </t>
@@ -326,6 +326,23 @@
         <family val="2"/>
       </rPr>
       <t>Status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số ấn bản
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Version</t>
     </r>
   </si>
 </sst>
@@ -472,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -510,6 +527,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -532,9 +555,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -890,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,61 +928,61 @@
     <col min="10" max="10" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+    <row r="1" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
     </row>
-    <row r="6" spans="1:12" ht="58.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -999,8 +1019,11 @@
       <c r="L6" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="M6" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -1025,10 +1048,11 @@
         <v>5</v>
       </c>
       <c r="J7" s="8"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="3" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -1055,36 +1079,37 @@
       <c r="J8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B10:C10"/>

--- a/assets/template/mau.xlsx
+++ b/assets/template/mau.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <r>
       <t xml:space="preserve">Nhà máy dược phẩm / </t>
@@ -344,12 +344,15 @@
       </rPr>
       <t>Version</t>
     </r>
+  </si>
+  <si>
+    <t>Hiện hành</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -489,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -531,6 +534,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -910,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,61 +934,61 @@
     <col min="10" max="10" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+    <row r="1" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
-    <row r="2" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
     </row>
-    <row r="6" spans="1:13" ht="58.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1022,8 +1028,11 @@
       <c r="M6" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="N6" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -1051,8 +1060,11 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
+      <c r="N7" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="3" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -1082,34 +1094,37 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B10:C10"/>
